--- a/data/HazopCrawleyGuideToBestPracticeNormalized.xlsx
+++ b/data/HazopCrawleyGuideToBestPracticeNormalized.xlsx
@@ -5,10 +5,11 @@
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Node4.4-Metadata" sheetId="1" r:id="rId4"/>
-    <sheet name="Node4.4-Analysis" sheetId="2" r:id="rId5"/>
-    <sheet name="NodeA4.1-Metadata" sheetId="3" r:id="rId6"/>
-    <sheet name="NodeA4.1-Analysis" sheetId="4" r:id="rId7"/>
+    <sheet name="Project Information" sheetId="1" r:id="rId4"/>
+    <sheet name="Node4.4-Metadata" sheetId="2" r:id="rId5"/>
+    <sheet name="Node4.4-Analysis" sheetId="3" r:id="rId6"/>
+    <sheet name="NodeA4.1-Metadata" sheetId="4" r:id="rId7"/>
+    <sheet name="NodeA4.1-Analysis" sheetId="5" r:id="rId8"/>
   </sheets>
 </workbook>
 </file>
@@ -1987,7 +1988,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -1995,6 +1996,17 @@
     </font>
     <font>
       <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
@@ -2015,7 +2027,7 @@
       <name val="CMU Bright Roman"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2028,8 +2040,14 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -2057,10 +2075,70 @@
         <color indexed="10"/>
       </left>
       <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
         <color indexed="10"/>
       </right>
       <top style="thin">
         <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
         <color indexed="10"/>
@@ -2088,59 +2166,83 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -2163,6 +2265,7 @@
       <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
+      <rgbColor rgb="ffdbdbdb"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -3227,42 +3330,87 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="A2" xSplit="0" ySplit="1" activePane="bottomLeft" state="frozen"/>
+      <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10.1172" style="1" customWidth="1"/>
-    <col min="2" max="2" width="78.4609" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="5" width="16.3516" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.55" customHeight="1">
-      <c r="A1" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" ht="14.55" customHeight="1">
-      <c r="A2" t="s" s="3">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" ht="50.35" customHeight="1">
-      <c r="A3" t="s" s="5">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s" s="6">
-        <v>4</v>
-      </c>
+    <row r="1" ht="14.25" customHeight="1">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" ht="14.25" customHeight="1">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" ht="14.05" customHeight="1">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" ht="14.05" customHeight="1">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" ht="14.05" customHeight="1">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" ht="14.05" customHeight="1">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" ht="14.05" customHeight="1">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" ht="14.05" customHeight="1">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" ht="14.05" customHeight="1">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" ht="14.05" customHeight="1">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
@@ -3274,789 +3422,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="A2" xSplit="0" ySplit="1" activePane="bottomLeft" state="frozen"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="3.85156" style="7" customWidth="1"/>
-    <col min="2" max="2" width="20.5" style="7" customWidth="1"/>
-    <col min="3" max="3" width="22.6719" style="7" customWidth="1"/>
-    <col min="4" max="4" width="22.5" style="7" customWidth="1"/>
-    <col min="5" max="6" width="22.6719" style="7" customWidth="1"/>
-    <col min="7" max="7" width="22.5" style="7" customWidth="1"/>
-    <col min="8" max="8" width="11.1172" style="7" customWidth="1"/>
-    <col min="9" max="16384" width="16.3516" style="7" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="15.55" customHeight="1">
-      <c r="A1" t="s" s="8">
-        <v>5</v>
-      </c>
-      <c r="B1" t="s" s="8">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s" s="8">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s" s="8">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="H1" t="s" s="8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" ht="62.55" customHeight="1">
-      <c r="A2" s="9">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s" s="10">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s" s="10">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s" s="10">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s" s="10">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s" s="10">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" ht="62.35" customHeight="1">
-      <c r="A3" s="11">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s" s="12">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s" s="12">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s" s="12">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s" s="12">
-        <v>22</v>
-      </c>
-      <c r="F3" t="s" s="12">
-        <v>23</v>
-      </c>
-      <c r="G3" t="s" s="12">
-        <v>24</v>
-      </c>
-      <c r="H3" t="s" s="12">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" ht="62.35" customHeight="1">
-      <c r="A4" s="11">
-        <f>A3</f>
-        <v>2</v>
-      </c>
-      <c r="B4" t="s" s="12">
-        <f>B3</f>
-        <v>26</v>
-      </c>
-      <c r="C4" t="s" s="12">
-        <f>C3</f>
-        <v>27</v>
-      </c>
-      <c r="D4" t="s" s="12">
-        <f>D3</f>
-        <v>28</v>
-      </c>
-      <c r="E4" t="s" s="12">
-        <f>E3</f>
-        <v>29</v>
-      </c>
-      <c r="F4" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="G4" t="s" s="12">
-        <v>31</v>
-      </c>
-      <c r="H4" t="s" s="12">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" ht="26.35" customHeight="1">
-      <c r="A5" s="11">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s" s="12">
-        <v>33</v>
-      </c>
-      <c r="C5" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="D5" t="s" s="12">
-        <v>35</v>
-      </c>
-      <c r="E5" t="s" s="12">
-        <v>36</v>
-      </c>
-      <c r="F5" t="s" s="12">
-        <v>37</v>
-      </c>
-      <c r="G5" t="s" s="12">
-        <v>38</v>
-      </c>
-      <c r="H5" t="s" s="12">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" ht="38.35" customHeight="1">
-      <c r="A6" s="11">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s" s="12">
-        <v>39</v>
-      </c>
-      <c r="C6" t="s" s="12">
-        <v>40</v>
-      </c>
-      <c r="D6" t="s" s="12">
-        <v>41</v>
-      </c>
-      <c r="E6" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="F6" t="s" s="12">
-        <v>43</v>
-      </c>
-      <c r="G6" t="s" s="12">
-        <v>44</v>
-      </c>
-      <c r="H6" t="s" s="12">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" ht="38.35" customHeight="1">
-      <c r="A7" s="11">
-        <f>A6</f>
-        <v>9</v>
-      </c>
-      <c r="B7" t="s" s="12">
-        <f>B6</f>
-        <v>45</v>
-      </c>
-      <c r="C7" t="s" s="12">
-        <f>C6</f>
-        <v>46</v>
-      </c>
-      <c r="D7" t="s" s="12">
-        <f>D6</f>
-        <v>47</v>
-      </c>
-      <c r="E7" t="s" s="12">
-        <f>E6</f>
-        <v>48</v>
-      </c>
-      <c r="F7" t="s" s="12">
-        <f>F6</f>
-        <v>49</v>
-      </c>
-      <c r="G7" t="s" s="12">
-        <f>G6</f>
-        <v>50</v>
-      </c>
-      <c r="H7" t="s" s="12">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" ht="38.35" customHeight="1">
-      <c r="A8" s="11">
-        <f>A6</f>
-        <v>9</v>
-      </c>
-      <c r="B8" t="s" s="12">
-        <f>B6</f>
-        <v>45</v>
-      </c>
-      <c r="C8" t="s" s="12">
-        <f>C6</f>
-        <v>46</v>
-      </c>
-      <c r="D8" t="s" s="12">
-        <f>D6</f>
-        <v>47</v>
-      </c>
-      <c r="E8" t="s" s="12">
-        <f>E6</f>
-        <v>48</v>
-      </c>
-      <c r="F8" t="s" s="12">
-        <v>51</v>
-      </c>
-      <c r="G8" t="s" s="12">
-        <v>52</v>
-      </c>
-      <c r="H8" t="s" s="12">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" ht="38.35" customHeight="1">
-      <c r="A9" s="11">
-        <f>A6</f>
-        <v>9</v>
-      </c>
-      <c r="B9" t="s" s="12">
-        <f>B6</f>
-        <v>45</v>
-      </c>
-      <c r="C9" t="s" s="12">
-        <f>C6</f>
-        <v>46</v>
-      </c>
-      <c r="D9" t="s" s="12">
-        <f>D6</f>
-        <v>47</v>
-      </c>
-      <c r="E9" t="s" s="12">
-        <f>E6</f>
-        <v>48</v>
-      </c>
-      <c r="F9" t="s" s="12">
-        <v>53</v>
-      </c>
-      <c r="G9" t="s" s="12">
-        <v>54</v>
-      </c>
-      <c r="H9" t="s" s="12">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" ht="50.35" customHeight="1">
-      <c r="A10" s="11">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s" s="12">
-        <v>55</v>
-      </c>
-      <c r="C10" t="s" s="12">
-        <v>56</v>
-      </c>
-      <c r="D10" t="s" s="12">
-        <v>57</v>
-      </c>
-      <c r="E10" t="s" s="12">
-        <v>36</v>
-      </c>
-      <c r="F10" t="s" s="12">
-        <v>58</v>
-      </c>
-      <c r="G10" t="s" s="12">
-        <v>59</v>
-      </c>
-      <c r="H10" t="s" s="12">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" ht="38.35" customHeight="1">
-      <c r="A11" s="11">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s" s="12">
-        <v>60</v>
-      </c>
-      <c r="C11" t="s" s="12">
-        <v>61</v>
-      </c>
-      <c r="D11" t="s" s="12">
-        <v>62</v>
-      </c>
-      <c r="E11" t="s" s="12">
-        <v>63</v>
-      </c>
-      <c r="F11" t="s" s="12">
-        <v>64</v>
-      </c>
-      <c r="G11" t="s" s="12">
-        <v>65</v>
-      </c>
-      <c r="H11" t="s" s="12">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" ht="26.35" customHeight="1">
-      <c r="A12" s="11">
-        <f>A11</f>
-        <v>13</v>
-      </c>
-      <c r="B12" t="s" s="12">
-        <f>B11</f>
-        <v>66</v>
-      </c>
-      <c r="C12" t="s" s="12">
-        <f>C11</f>
-        <v>67</v>
-      </c>
-      <c r="D12" t="s" s="12">
-        <f>D11</f>
-        <v>68</v>
-      </c>
-      <c r="E12" t="s" s="12">
-        <v>69</v>
-      </c>
-      <c r="F12" t="s" s="12">
-        <v>70</v>
-      </c>
-      <c r="G12" t="s" s="12">
-        <v>71</v>
-      </c>
-      <c r="H12" t="s" s="12">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" ht="38.35" customHeight="1">
-      <c r="A13" s="11">
-        <v>16</v>
-      </c>
-      <c r="B13" t="s" s="12">
-        <v>72</v>
-      </c>
-      <c r="C13" t="s" s="12">
-        <v>73</v>
-      </c>
-      <c r="D13" t="s" s="12">
-        <v>74</v>
-      </c>
-      <c r="E13" t="s" s="12">
-        <v>75</v>
-      </c>
-      <c r="F13" t="s" s="12">
-        <v>76</v>
-      </c>
-      <c r="G13" t="s" s="12">
-        <v>77</v>
-      </c>
-      <c r="H13" t="s" s="12">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" ht="38.35" customHeight="1">
-      <c r="A14" s="11">
-        <f>A13</f>
-        <v>16</v>
-      </c>
-      <c r="B14" t="s" s="12">
-        <f>B13</f>
-        <v>79</v>
-      </c>
-      <c r="C14" t="s" s="12">
-        <f>C13</f>
-        <v>80</v>
-      </c>
-      <c r="D14" t="s" s="12">
-        <f>D13</f>
-        <v>81</v>
-      </c>
-      <c r="E14" t="s" s="12">
-        <f>E13</f>
-        <v>82</v>
-      </c>
-      <c r="F14" t="s" s="12">
-        <f>F13</f>
-        <v>83</v>
-      </c>
-      <c r="G14" t="s" s="12">
-        <f>G13</f>
-        <v>84</v>
-      </c>
-      <c r="H14" t="s" s="12">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" ht="38.35" customHeight="1">
-      <c r="A15" s="11">
-        <f>A13</f>
-        <v>16</v>
-      </c>
-      <c r="B15" t="s" s="12">
-        <f>B13</f>
-        <v>79</v>
-      </c>
-      <c r="C15" t="s" s="12">
-        <f>C13</f>
-        <v>80</v>
-      </c>
-      <c r="D15" t="s" s="12">
-        <f>D13</f>
-        <v>81</v>
-      </c>
-      <c r="E15" t="s" s="12">
-        <f>E13</f>
-        <v>82</v>
-      </c>
-      <c r="F15" t="s" s="12">
-        <v>85</v>
-      </c>
-      <c r="G15" t="s" s="12">
-        <v>86</v>
-      </c>
-      <c r="H15" t="s" s="12">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" ht="38.35" customHeight="1">
-      <c r="A16" s="11">
-        <v>18</v>
-      </c>
-      <c r="B16" t="s" s="12">
-        <v>87</v>
-      </c>
-      <c r="C16" t="s" s="12">
-        <v>88</v>
-      </c>
-      <c r="D16" t="s" s="12">
-        <v>89</v>
-      </c>
-      <c r="E16" t="s" s="12">
-        <v>90</v>
-      </c>
-      <c r="F16" t="s" s="12">
-        <v>91</v>
-      </c>
-      <c r="G16" t="s" s="12">
-        <v>92</v>
-      </c>
-      <c r="H16" t="s" s="12">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" ht="38.35" customHeight="1">
-      <c r="A17" s="11">
-        <f>A16</f>
-        <v>18</v>
-      </c>
-      <c r="B17" t="s" s="12">
-        <f>B16</f>
-        <v>93</v>
-      </c>
-      <c r="C17" t="s" s="12">
-        <f>C16</f>
-        <v>94</v>
-      </c>
-      <c r="D17" t="s" s="12">
-        <f>D16</f>
-        <v>95</v>
-      </c>
-      <c r="E17" t="s" s="12">
-        <f>E16</f>
-        <v>96</v>
-      </c>
-      <c r="F17" t="s" s="12">
-        <v>97</v>
-      </c>
-      <c r="G17" t="s" s="12">
-        <v>98</v>
-      </c>
-      <c r="H17" t="s" s="12">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" ht="62.35" customHeight="1">
-      <c r="A18" s="11">
-        <v>19</v>
-      </c>
-      <c r="B18" t="s" s="12">
-        <v>99</v>
-      </c>
-      <c r="C18" t="s" s="12">
-        <v>100</v>
-      </c>
-      <c r="D18" t="s" s="12">
-        <v>101</v>
-      </c>
-      <c r="E18" t="s" s="12">
-        <v>102</v>
-      </c>
-      <c r="F18" t="s" s="12">
-        <v>103</v>
-      </c>
-      <c r="G18" t="s" s="12">
-        <v>104</v>
-      </c>
-      <c r="H18" t="s" s="12">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" ht="62.35" customHeight="1">
-      <c r="A19" s="11">
-        <f>A18</f>
-        <v>19</v>
-      </c>
-      <c r="B19" t="s" s="12">
-        <f>B18</f>
-        <v>105</v>
-      </c>
-      <c r="C19" t="s" s="12">
-        <f>C18</f>
-        <v>106</v>
-      </c>
-      <c r="D19" t="s" s="12">
-        <f>D18</f>
-        <v>107</v>
-      </c>
-      <c r="E19" t="s" s="12">
-        <f>E18</f>
-        <v>108</v>
-      </c>
-      <c r="F19" t="s" s="12">
-        <f>F18</f>
-        <v>109</v>
-      </c>
-      <c r="G19" t="s" s="12">
-        <f>G18</f>
-        <v>110</v>
-      </c>
-      <c r="H19" t="s" s="12">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" ht="74.35" customHeight="1">
-      <c r="A20" s="11">
-        <v>21</v>
-      </c>
-      <c r="B20" t="s" s="12">
-        <v>111</v>
-      </c>
-      <c r="C20" t="s" s="12">
-        <v>112</v>
-      </c>
-      <c r="D20" t="s" s="12">
-        <v>113</v>
-      </c>
-      <c r="E20" t="s" s="12">
-        <v>114</v>
-      </c>
-      <c r="F20" t="s" s="12">
-        <v>115</v>
-      </c>
-      <c r="G20" t="s" s="12">
-        <v>116</v>
-      </c>
-      <c r="H20" t="s" s="12">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" ht="74.35" customHeight="1">
-      <c r="A21" s="11">
-        <f>A20</f>
-        <v>21</v>
-      </c>
-      <c r="B21" t="s" s="12">
-        <f>B20</f>
-        <v>117</v>
-      </c>
-      <c r="C21" t="s" s="12">
-        <f>C20</f>
-        <v>118</v>
-      </c>
-      <c r="D21" t="s" s="12">
-        <f>D20</f>
-        <v>119</v>
-      </c>
-      <c r="E21" t="s" s="12">
-        <f>E20</f>
-        <v>120</v>
-      </c>
-      <c r="F21" t="s" s="12">
-        <v>121</v>
-      </c>
-      <c r="G21" t="s" s="12">
-        <v>122</v>
-      </c>
-      <c r="H21" t="s" s="12">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" ht="38.35" customHeight="1">
-      <c r="A22" s="11">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s" s="12">
-        <v>123</v>
-      </c>
-      <c r="C22" t="s" s="12">
-        <v>124</v>
-      </c>
-      <c r="D22" t="s" s="12">
-        <v>125</v>
-      </c>
-      <c r="E22" t="s" s="12">
-        <v>126</v>
-      </c>
-      <c r="F22" t="s" s="12">
-        <v>127</v>
-      </c>
-      <c r="G22" t="s" s="12">
-        <v>128</v>
-      </c>
-      <c r="H22" t="s" s="12">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" ht="38.35" customHeight="1">
-      <c r="A23" s="11">
-        <f>A22</f>
-        <v>22</v>
-      </c>
-      <c r="B23" t="s" s="12">
-        <f>B22</f>
-        <v>129</v>
-      </c>
-      <c r="C23" t="s" s="12">
-        <f>C22</f>
-        <v>130</v>
-      </c>
-      <c r="D23" t="s" s="12">
-        <f>D22</f>
-        <v>131</v>
-      </c>
-      <c r="E23" t="s" s="12">
-        <f>E22</f>
-        <v>132</v>
-      </c>
-      <c r="F23" t="s" s="12">
-        <f>F22</f>
-        <v>133</v>
-      </c>
-      <c r="G23" t="s" s="12">
-        <f>G22</f>
-        <v>134</v>
-      </c>
-      <c r="H23" t="s" s="12">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="24" ht="38.35" customHeight="1">
-      <c r="A24" s="11">
-        <f>A22</f>
-        <v>22</v>
-      </c>
-      <c r="B24" t="s" s="12">
-        <f>B22</f>
-        <v>129</v>
-      </c>
-      <c r="C24" t="s" s="12">
-        <f>C22</f>
-        <v>130</v>
-      </c>
-      <c r="D24" t="s" s="12">
-        <v>136</v>
-      </c>
-      <c r="E24" t="s" s="12">
-        <f>E22</f>
-        <v>132</v>
-      </c>
-      <c r="F24" t="s" s="12">
-        <v>137</v>
-      </c>
-      <c r="G24" t="s" s="12">
-        <v>138</v>
-      </c>
-      <c r="H24" t="s" s="12">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" ht="50.35" customHeight="1">
-      <c r="A25" s="11">
-        <f>A22</f>
-        <v>22</v>
-      </c>
-      <c r="B25" t="s" s="12">
-        <f>B22</f>
-        <v>129</v>
-      </c>
-      <c r="C25" t="s" s="12">
-        <f>C22</f>
-        <v>130</v>
-      </c>
-      <c r="D25" t="s" s="12">
-        <f>D22</f>
-        <v>131</v>
-      </c>
-      <c r="E25" t="s" s="12">
-        <f>E22</f>
-        <v>132</v>
-      </c>
-      <c r="F25" t="s" s="12">
-        <v>139</v>
-      </c>
-      <c r="G25" t="s" s="12">
-        <v>140</v>
-      </c>
-      <c r="H25" t="s" s="12">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" ht="50.35" customHeight="1">
-      <c r="A26" s="11">
-        <f>A25</f>
-        <v>22</v>
-      </c>
-      <c r="B26" t="s" s="12">
-        <f>B25</f>
-        <v>129</v>
-      </c>
-      <c r="C26" t="s" s="12">
-        <f>C25</f>
-        <v>130</v>
-      </c>
-      <c r="D26" t="s" s="12">
-        <f>D25</f>
-        <v>131</v>
-      </c>
-      <c r="E26" t="s" s="12">
-        <f>E25</f>
-        <v>132</v>
-      </c>
-      <c r="F26" t="s" s="12">
-        <f>F25</f>
-        <v>141</v>
-      </c>
-      <c r="G26" t="s" s="12">
-        <f>G25</f>
-        <v>142</v>
-      </c>
-      <c r="H26" t="s" s="12">
-        <v>135</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -4069,33 +3434,33 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10.1172" style="13" customWidth="1"/>
-    <col min="2" max="2" width="78.4609" style="13" customWidth="1"/>
-    <col min="3" max="16384" width="16.3516" style="13" customWidth="1"/>
+    <col min="1" max="1" width="10.1172" style="9" customWidth="1"/>
+    <col min="2" max="2" width="78.4609" style="9" customWidth="1"/>
+    <col min="3" max="16384" width="16.3516" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.55" customHeight="1">
-      <c r="A1" t="s" s="2">
+      <c r="A1" t="s" s="10">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="2" ht="14.55" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="A2" t="s" s="11">
         <v>2</v>
       </c>
-      <c r="B2" t="s" s="4">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="3" ht="26.35" customHeight="1">
-      <c r="A3" t="s" s="5">
+      <c r="B2" t="s" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" ht="50.35" customHeight="1">
+      <c r="A3" t="s" s="13">
         <v>1</v>
       </c>
-      <c r="B3" t="s" s="6">
-        <v>144</v>
+      <c r="B3" t="s" s="14">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -4107,7 +3472,841 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
+      <pane topLeftCell="A2" xSplit="0" ySplit="1" activePane="bottomLeft" state="frozen"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="3.85156" style="15" customWidth="1"/>
+    <col min="2" max="2" width="20.5" style="15" customWidth="1"/>
+    <col min="3" max="3" width="22.6719" style="15" customWidth="1"/>
+    <col min="4" max="4" width="22.5" style="15" customWidth="1"/>
+    <col min="5" max="6" width="22.6719" style="15" customWidth="1"/>
+    <col min="7" max="7" width="22.5" style="15" customWidth="1"/>
+    <col min="8" max="8" width="11.1172" style="15" customWidth="1"/>
+    <col min="9" max="16384" width="16.3516" style="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.55" customHeight="1">
+      <c r="A1" t="s" s="16">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s" s="16">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s" s="16">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s" s="16">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s" s="16">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s" s="16">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s" s="16">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" ht="62.55" customHeight="1">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="18">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s" s="18">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s" s="18">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s" s="18">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s" s="18">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s" s="18">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s" s="18">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" ht="62.35" customHeight="1">
+      <c r="A3" s="19">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s" s="20">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s" s="20">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s" s="20">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s" s="20">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s" s="20">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s" s="20">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" ht="62.35" customHeight="1">
+      <c r="A4" s="19">
+        <f>A3</f>
+        <v>2</v>
+      </c>
+      <c r="B4" t="s" s="20">
+        <f>B3</f>
+        <v>26</v>
+      </c>
+      <c r="C4" t="s" s="20">
+        <f>C3</f>
+        <v>27</v>
+      </c>
+      <c r="D4" t="s" s="20">
+        <f>D3</f>
+        <v>28</v>
+      </c>
+      <c r="E4" t="s" s="20">
+        <f>E3</f>
+        <v>29</v>
+      </c>
+      <c r="F4" t="s" s="20">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s" s="20">
+        <v>31</v>
+      </c>
+      <c r="H4" t="s" s="20">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" ht="26.35" customHeight="1">
+      <c r="A5" s="19">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s" s="20">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s" s="20">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s" s="20">
+        <v>35</v>
+      </c>
+      <c r="E5" t="s" s="20">
+        <v>36</v>
+      </c>
+      <c r="F5" t="s" s="20">
+        <v>37</v>
+      </c>
+      <c r="G5" t="s" s="20">
+        <v>38</v>
+      </c>
+      <c r="H5" t="s" s="20">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" ht="38.35" customHeight="1">
+      <c r="A6" s="19">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s" s="20">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s" s="20">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s" s="20">
+        <v>41</v>
+      </c>
+      <c r="E6" t="s" s="20">
+        <v>42</v>
+      </c>
+      <c r="F6" t="s" s="20">
+        <v>43</v>
+      </c>
+      <c r="G6" t="s" s="20">
+        <v>44</v>
+      </c>
+      <c r="H6" t="s" s="20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" ht="38.35" customHeight="1">
+      <c r="A7" s="19">
+        <f>A6</f>
+        <v>9</v>
+      </c>
+      <c r="B7" t="s" s="20">
+        <f>B6</f>
+        <v>45</v>
+      </c>
+      <c r="C7" t="s" s="20">
+        <f>C6</f>
+        <v>46</v>
+      </c>
+      <c r="D7" t="s" s="20">
+        <f>D6</f>
+        <v>47</v>
+      </c>
+      <c r="E7" t="s" s="20">
+        <f>E6</f>
+        <v>48</v>
+      </c>
+      <c r="F7" t="s" s="20">
+        <f>F6</f>
+        <v>49</v>
+      </c>
+      <c r="G7" t="s" s="20">
+        <f>G6</f>
+        <v>50</v>
+      </c>
+      <c r="H7" t="s" s="20">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" ht="38.35" customHeight="1">
+      <c r="A8" s="19">
+        <f>A6</f>
+        <v>9</v>
+      </c>
+      <c r="B8" t="s" s="20">
+        <f>B6</f>
+        <v>45</v>
+      </c>
+      <c r="C8" t="s" s="20">
+        <f>C6</f>
+        <v>46</v>
+      </c>
+      <c r="D8" t="s" s="20">
+        <f>D6</f>
+        <v>47</v>
+      </c>
+      <c r="E8" t="s" s="20">
+        <f>E6</f>
+        <v>48</v>
+      </c>
+      <c r="F8" t="s" s="20">
+        <v>51</v>
+      </c>
+      <c r="G8" t="s" s="20">
+        <v>52</v>
+      </c>
+      <c r="H8" t="s" s="20">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" ht="38.35" customHeight="1">
+      <c r="A9" s="19">
+        <f>A6</f>
+        <v>9</v>
+      </c>
+      <c r="B9" t="s" s="20">
+        <f>B6</f>
+        <v>45</v>
+      </c>
+      <c r="C9" t="s" s="20">
+        <f>C6</f>
+        <v>46</v>
+      </c>
+      <c r="D9" t="s" s="20">
+        <f>D6</f>
+        <v>47</v>
+      </c>
+      <c r="E9" t="s" s="20">
+        <f>E6</f>
+        <v>48</v>
+      </c>
+      <c r="F9" t="s" s="20">
+        <v>53</v>
+      </c>
+      <c r="G9" t="s" s="20">
+        <v>54</v>
+      </c>
+      <c r="H9" t="s" s="20">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" ht="50.35" customHeight="1">
+      <c r="A10" s="19">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s" s="20">
+        <v>55</v>
+      </c>
+      <c r="C10" t="s" s="20">
+        <v>56</v>
+      </c>
+      <c r="D10" t="s" s="20">
+        <v>57</v>
+      </c>
+      <c r="E10" t="s" s="20">
+        <v>36</v>
+      </c>
+      <c r="F10" t="s" s="20">
+        <v>58</v>
+      </c>
+      <c r="G10" t="s" s="20">
+        <v>59</v>
+      </c>
+      <c r="H10" t="s" s="20">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" ht="38.35" customHeight="1">
+      <c r="A11" s="19">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s" s="20">
+        <v>60</v>
+      </c>
+      <c r="C11" t="s" s="20">
+        <v>61</v>
+      </c>
+      <c r="D11" t="s" s="20">
+        <v>62</v>
+      </c>
+      <c r="E11" t="s" s="20">
+        <v>63</v>
+      </c>
+      <c r="F11" t="s" s="20">
+        <v>64</v>
+      </c>
+      <c r="G11" t="s" s="20">
+        <v>65</v>
+      </c>
+      <c r="H11" t="s" s="20">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" ht="26.35" customHeight="1">
+      <c r="A12" s="19">
+        <f>A11</f>
+        <v>13</v>
+      </c>
+      <c r="B12" t="s" s="20">
+        <f>B11</f>
+        <v>66</v>
+      </c>
+      <c r="C12" t="s" s="20">
+        <f>C11</f>
+        <v>67</v>
+      </c>
+      <c r="D12" t="s" s="20">
+        <f>D11</f>
+        <v>68</v>
+      </c>
+      <c r="E12" t="s" s="20">
+        <v>69</v>
+      </c>
+      <c r="F12" t="s" s="20">
+        <v>70</v>
+      </c>
+      <c r="G12" t="s" s="20">
+        <v>71</v>
+      </c>
+      <c r="H12" t="s" s="20">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" ht="38.35" customHeight="1">
+      <c r="A13" s="19">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s" s="20">
+        <v>72</v>
+      </c>
+      <c r="C13" t="s" s="20">
+        <v>73</v>
+      </c>
+      <c r="D13" t="s" s="20">
+        <v>74</v>
+      </c>
+      <c r="E13" t="s" s="20">
+        <v>75</v>
+      </c>
+      <c r="F13" t="s" s="20">
+        <v>76</v>
+      </c>
+      <c r="G13" t="s" s="20">
+        <v>77</v>
+      </c>
+      <c r="H13" t="s" s="20">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" ht="38.35" customHeight="1">
+      <c r="A14" s="19">
+        <f>A13</f>
+        <v>16</v>
+      </c>
+      <c r="B14" t="s" s="20">
+        <f>B13</f>
+        <v>79</v>
+      </c>
+      <c r="C14" t="s" s="20">
+        <f>C13</f>
+        <v>80</v>
+      </c>
+      <c r="D14" t="s" s="20">
+        <f>D13</f>
+        <v>81</v>
+      </c>
+      <c r="E14" t="s" s="20">
+        <f>E13</f>
+        <v>82</v>
+      </c>
+      <c r="F14" t="s" s="20">
+        <f>F13</f>
+        <v>83</v>
+      </c>
+      <c r="G14" t="s" s="20">
+        <f>G13</f>
+        <v>84</v>
+      </c>
+      <c r="H14" t="s" s="20">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" ht="38.35" customHeight="1">
+      <c r="A15" s="19">
+        <f>A13</f>
+        <v>16</v>
+      </c>
+      <c r="B15" t="s" s="20">
+        <f>B13</f>
+        <v>79</v>
+      </c>
+      <c r="C15" t="s" s="20">
+        <f>C13</f>
+        <v>80</v>
+      </c>
+      <c r="D15" t="s" s="20">
+        <f>D13</f>
+        <v>81</v>
+      </c>
+      <c r="E15" t="s" s="20">
+        <f>E13</f>
+        <v>82</v>
+      </c>
+      <c r="F15" t="s" s="20">
+        <v>85</v>
+      </c>
+      <c r="G15" t="s" s="20">
+        <v>86</v>
+      </c>
+      <c r="H15" t="s" s="20">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" ht="38.35" customHeight="1">
+      <c r="A16" s="19">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s" s="20">
+        <v>87</v>
+      </c>
+      <c r="C16" t="s" s="20">
+        <v>88</v>
+      </c>
+      <c r="D16" t="s" s="20">
+        <v>89</v>
+      </c>
+      <c r="E16" t="s" s="20">
+        <v>90</v>
+      </c>
+      <c r="F16" t="s" s="20">
+        <v>91</v>
+      </c>
+      <c r="G16" t="s" s="20">
+        <v>92</v>
+      </c>
+      <c r="H16" t="s" s="20">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" ht="38.35" customHeight="1">
+      <c r="A17" s="19">
+        <f>A16</f>
+        <v>18</v>
+      </c>
+      <c r="B17" t="s" s="20">
+        <f>B16</f>
+        <v>93</v>
+      </c>
+      <c r="C17" t="s" s="20">
+        <f>C16</f>
+        <v>94</v>
+      </c>
+      <c r="D17" t="s" s="20">
+        <f>D16</f>
+        <v>95</v>
+      </c>
+      <c r="E17" t="s" s="20">
+        <f>E16</f>
+        <v>96</v>
+      </c>
+      <c r="F17" t="s" s="20">
+        <v>97</v>
+      </c>
+      <c r="G17" t="s" s="20">
+        <v>98</v>
+      </c>
+      <c r="H17" t="s" s="20">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" ht="62.35" customHeight="1">
+      <c r="A18" s="19">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s" s="20">
+        <v>99</v>
+      </c>
+      <c r="C18" t="s" s="20">
+        <v>100</v>
+      </c>
+      <c r="D18" t="s" s="20">
+        <v>101</v>
+      </c>
+      <c r="E18" t="s" s="20">
+        <v>102</v>
+      </c>
+      <c r="F18" t="s" s="20">
+        <v>103</v>
+      </c>
+      <c r="G18" t="s" s="20">
+        <v>104</v>
+      </c>
+      <c r="H18" t="s" s="20">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" ht="62.35" customHeight="1">
+      <c r="A19" s="19">
+        <f>A18</f>
+        <v>19</v>
+      </c>
+      <c r="B19" t="s" s="20">
+        <f>B18</f>
+        <v>105</v>
+      </c>
+      <c r="C19" t="s" s="20">
+        <f>C18</f>
+        <v>106</v>
+      </c>
+      <c r="D19" t="s" s="20">
+        <f>D18</f>
+        <v>107</v>
+      </c>
+      <c r="E19" t="s" s="20">
+        <f>E18</f>
+        <v>108</v>
+      </c>
+      <c r="F19" t="s" s="20">
+        <f>F18</f>
+        <v>109</v>
+      </c>
+      <c r="G19" t="s" s="20">
+        <f>G18</f>
+        <v>110</v>
+      </c>
+      <c r="H19" t="s" s="20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" ht="74.35" customHeight="1">
+      <c r="A20" s="19">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s" s="20">
+        <v>111</v>
+      </c>
+      <c r="C20" t="s" s="20">
+        <v>112</v>
+      </c>
+      <c r="D20" t="s" s="20">
+        <v>113</v>
+      </c>
+      <c r="E20" t="s" s="20">
+        <v>114</v>
+      </c>
+      <c r="F20" t="s" s="20">
+        <v>115</v>
+      </c>
+      <c r="G20" t="s" s="20">
+        <v>116</v>
+      </c>
+      <c r="H20" t="s" s="20">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" ht="74.35" customHeight="1">
+      <c r="A21" s="19">
+        <f>A20</f>
+        <v>21</v>
+      </c>
+      <c r="B21" t="s" s="20">
+        <f>B20</f>
+        <v>117</v>
+      </c>
+      <c r="C21" t="s" s="20">
+        <f>C20</f>
+        <v>118</v>
+      </c>
+      <c r="D21" t="s" s="20">
+        <f>D20</f>
+        <v>119</v>
+      </c>
+      <c r="E21" t="s" s="20">
+        <f>E20</f>
+        <v>120</v>
+      </c>
+      <c r="F21" t="s" s="20">
+        <v>121</v>
+      </c>
+      <c r="G21" t="s" s="20">
+        <v>122</v>
+      </c>
+      <c r="H21" t="s" s="20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" ht="38.35" customHeight="1">
+      <c r="A22" s="19">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s" s="20">
+        <v>123</v>
+      </c>
+      <c r="C22" t="s" s="20">
+        <v>124</v>
+      </c>
+      <c r="D22" t="s" s="20">
+        <v>125</v>
+      </c>
+      <c r="E22" t="s" s="20">
+        <v>126</v>
+      </c>
+      <c r="F22" t="s" s="20">
+        <v>127</v>
+      </c>
+      <c r="G22" t="s" s="20">
+        <v>128</v>
+      </c>
+      <c r="H22" t="s" s="20">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" ht="38.35" customHeight="1">
+      <c r="A23" s="19">
+        <f>A22</f>
+        <v>22</v>
+      </c>
+      <c r="B23" t="s" s="20">
+        <f>B22</f>
+        <v>129</v>
+      </c>
+      <c r="C23" t="s" s="20">
+        <f>C22</f>
+        <v>130</v>
+      </c>
+      <c r="D23" t="s" s="20">
+        <f>D22</f>
+        <v>131</v>
+      </c>
+      <c r="E23" t="s" s="20">
+        <f>E22</f>
+        <v>132</v>
+      </c>
+      <c r="F23" t="s" s="20">
+        <f>F22</f>
+        <v>133</v>
+      </c>
+      <c r="G23" t="s" s="20">
+        <f>G22</f>
+        <v>134</v>
+      </c>
+      <c r="H23" t="s" s="20">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" ht="38.35" customHeight="1">
+      <c r="A24" s="19">
+        <f>A22</f>
+        <v>22</v>
+      </c>
+      <c r="B24" t="s" s="20">
+        <f>B22</f>
+        <v>129</v>
+      </c>
+      <c r="C24" t="s" s="20">
+        <f>C22</f>
+        <v>130</v>
+      </c>
+      <c r="D24" t="s" s="20">
+        <v>136</v>
+      </c>
+      <c r="E24" t="s" s="20">
+        <f>E22</f>
+        <v>132</v>
+      </c>
+      <c r="F24" t="s" s="20">
+        <v>137</v>
+      </c>
+      <c r="G24" t="s" s="20">
+        <v>138</v>
+      </c>
+      <c r="H24" t="s" s="20">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" ht="50.35" customHeight="1">
+      <c r="A25" s="19">
+        <f>A22</f>
+        <v>22</v>
+      </c>
+      <c r="B25" t="s" s="20">
+        <f>B22</f>
+        <v>129</v>
+      </c>
+      <c r="C25" t="s" s="20">
+        <f>C22</f>
+        <v>130</v>
+      </c>
+      <c r="D25" t="s" s="20">
+        <f>D22</f>
+        <v>131</v>
+      </c>
+      <c r="E25" t="s" s="20">
+        <f>E22</f>
+        <v>132</v>
+      </c>
+      <c r="F25" t="s" s="20">
+        <v>139</v>
+      </c>
+      <c r="G25" t="s" s="20">
+        <v>140</v>
+      </c>
+      <c r="H25" t="s" s="20">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" ht="50.35" customHeight="1">
+      <c r="A26" s="19">
+        <f>A25</f>
+        <v>22</v>
+      </c>
+      <c r="B26" t="s" s="20">
+        <f>B25</f>
+        <v>129</v>
+      </c>
+      <c r="C26" t="s" s="20">
+        <f>C25</f>
+        <v>130</v>
+      </c>
+      <c r="D26" t="s" s="20">
+        <f>D25</f>
+        <v>131</v>
+      </c>
+      <c r="E26" t="s" s="20">
+        <f>E25</f>
+        <v>132</v>
+      </c>
+      <c r="F26" t="s" s="20">
+        <f>F25</f>
+        <v>141</v>
+      </c>
+      <c r="G26" t="s" s="20">
+        <f>G25</f>
+        <v>142</v>
+      </c>
+      <c r="H26" t="s" s="20">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
+      <pane topLeftCell="A2" xSplit="0" ySplit="1" activePane="bottomLeft" state="frozen"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="10.1172" style="21" customWidth="1"/>
+    <col min="2" max="2" width="78.4609" style="21" customWidth="1"/>
+    <col min="3" max="16384" width="16.3516" style="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.55" customHeight="1">
+      <c r="A1" t="s" s="10">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" ht="14.55" customHeight="1">
+      <c r="A2" t="s" s="11">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s" s="12">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" ht="26.35" customHeight="1">
+      <c r="A3" t="s" s="13">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s" s="14">
+        <v>144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -4120,1519 +4319,1519 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="3.67188" style="14" customWidth="1"/>
-    <col min="2" max="2" width="13.1719" style="14" customWidth="1"/>
-    <col min="3" max="3" width="16.6719" style="14" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="14" customWidth="1"/>
-    <col min="5" max="5" width="16.8516" style="14" customWidth="1"/>
-    <col min="6" max="6" width="17" style="14" customWidth="1"/>
-    <col min="7" max="7" width="9.375" style="14" customWidth="1"/>
-    <col min="8" max="8" width="17" style="14" customWidth="1"/>
-    <col min="9" max="9" width="8.57031" style="14" customWidth="1"/>
-    <col min="10" max="16384" width="16.3516" style="14" customWidth="1"/>
+    <col min="1" max="1" width="3.67188" style="22" customWidth="1"/>
+    <col min="2" max="2" width="13.1719" style="22" customWidth="1"/>
+    <col min="3" max="3" width="16.6719" style="22" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="22" customWidth="1"/>
+    <col min="5" max="5" width="16.8516" style="22" customWidth="1"/>
+    <col min="6" max="6" width="17" style="22" customWidth="1"/>
+    <col min="7" max="7" width="9.375" style="22" customWidth="1"/>
+    <col min="8" max="8" width="17" style="22" customWidth="1"/>
+    <col min="9" max="9" width="8.57031" style="22" customWidth="1"/>
+    <col min="10" max="16384" width="16.3516" style="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.55" customHeight="1">
-      <c r="A1" t="s" s="2">
+      <c r="A1" t="s" s="10">
         <v>5</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="10">
         <v>145</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="10">
         <v>6</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="10">
         <v>146</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="10">
         <v>8</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="10">
         <v>147</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="10">
         <v>148</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="H1" t="s" s="10">
         <v>11</v>
       </c>
-      <c r="I1" t="s" s="2">
+      <c r="I1" t="s" s="10">
         <v>12</v>
       </c>
     </row>
     <row r="2" ht="74.55" customHeight="1">
-      <c r="A2" s="15">
+      <c r="A2" s="23">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" t="s" s="11">
         <v>149</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" t="s" s="11">
         <v>150</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="D2" t="s" s="11">
         <v>151</v>
       </c>
-      <c r="E2" t="s" s="3">
+      <c r="E2" t="s" s="11">
         <v>152</v>
       </c>
-      <c r="F2" t="s" s="3">
+      <c r="F2" t="s" s="11">
         <v>153</v>
       </c>
-      <c r="G2" t="s" s="3">
+      <c r="G2" t="s" s="11">
         <v>154</v>
       </c>
-      <c r="H2" t="s" s="3">
+      <c r="H2" t="s" s="11">
         <v>155</v>
       </c>
-      <c r="I2" t="s" s="3">
+      <c r="I2" t="s" s="11">
         <v>156</v>
       </c>
     </row>
     <row r="3" ht="74.35" customHeight="1">
-      <c r="A3" s="16">
+      <c r="A3" s="24">
         <f>A2</f>
         <v>1</v>
       </c>
-      <c r="B3" t="s" s="5">
+      <c r="B3" t="s" s="13">
         <f>B2</f>
         <v>149</v>
       </c>
-      <c r="C3" t="s" s="5">
+      <c r="C3" t="s" s="13">
         <f>C2</f>
         <v>150</v>
       </c>
-      <c r="D3" t="s" s="5">
+      <c r="D3" t="s" s="13">
         <f>D2</f>
         <v>151</v>
       </c>
-      <c r="E3" t="s" s="5">
+      <c r="E3" t="s" s="13">
         <f>E2</f>
         <v>152</v>
       </c>
-      <c r="F3" t="s" s="5">
+      <c r="F3" t="s" s="13">
         <f>F2</f>
         <v>153</v>
       </c>
-      <c r="G3" t="s" s="5">
+      <c r="G3" t="s" s="13">
         <v>157</v>
       </c>
-      <c r="H3" t="s" s="5">
+      <c r="H3" t="s" s="13">
         <v>158</v>
       </c>
-      <c r="I3" t="s" s="5">
+      <c r="I3" t="s" s="13">
         <v>156</v>
       </c>
     </row>
     <row r="4" ht="50.35" customHeight="1">
-      <c r="A4" s="16">
+      <c r="A4" s="24">
         <v>2</v>
       </c>
-      <c r="B4" t="s" s="5">
+      <c r="B4" t="s" s="13">
         <v>159</v>
       </c>
-      <c r="C4" t="s" s="5">
+      <c r="C4" t="s" s="13">
         <v>160</v>
       </c>
-      <c r="D4" t="s" s="5">
+      <c r="D4" t="s" s="13">
         <v>161</v>
       </c>
-      <c r="E4" t="s" s="5">
+      <c r="E4" t="s" s="13">
         <v>162</v>
       </c>
-      <c r="F4" t="s" s="5">
+      <c r="F4" t="s" s="13">
         <v>163</v>
       </c>
-      <c r="G4" t="s" s="5">
+      <c r="G4" t="s" s="13">
         <v>164</v>
       </c>
-      <c r="H4" t="s" s="5">
+      <c r="H4" t="s" s="13">
         <v>165</v>
       </c>
-      <c r="I4" t="s" s="5">
+      <c r="I4" t="s" s="13">
         <v>156</v>
       </c>
     </row>
     <row r="5" ht="50.35" customHeight="1">
-      <c r="A5" s="16">
+      <c r="A5" s="24">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="5">
+      <c r="B5" t="s" s="13">
         <v>159</v>
       </c>
-      <c r="C5" t="s" s="5">
+      <c r="C5" t="s" s="13">
         <v>166</v>
       </c>
-      <c r="D5" t="s" s="5">
+      <c r="D5" t="s" s="13">
         <v>167</v>
       </c>
-      <c r="E5" t="s" s="5">
+      <c r="E5" t="s" s="13">
         <v>168</v>
       </c>
-      <c r="F5" t="s" s="5">
+      <c r="F5" t="s" s="13">
         <v>169</v>
       </c>
-      <c r="G5" t="s" s="5">
+      <c r="G5" t="s" s="13">
         <v>170</v>
       </c>
-      <c r="H5" t="s" s="5">
+      <c r="H5" t="s" s="13">
         <v>171</v>
       </c>
-      <c r="I5" t="s" s="5">
+      <c r="I5" t="s" s="13">
         <v>172</v>
       </c>
     </row>
     <row r="6" ht="50.35" customHeight="1">
-      <c r="A6" s="16">
+      <c r="A6" s="24">
         <f>A5</f>
         <v>3</v>
       </c>
-      <c r="B6" t="s" s="5">
+      <c r="B6" t="s" s="13">
         <f>B5</f>
         <v>173</v>
       </c>
-      <c r="C6" t="s" s="5">
+      <c r="C6" t="s" s="13">
         <f>C5</f>
         <v>174</v>
       </c>
-      <c r="D6" t="s" s="5">
+      <c r="D6" t="s" s="13">
         <f>D5</f>
         <v>175</v>
       </c>
-      <c r="E6" t="s" s="5">
+      <c r="E6" t="s" s="13">
         <f>E5</f>
         <v>176</v>
       </c>
-      <c r="F6" t="s" s="5">
+      <c r="F6" t="s" s="13">
         <f>F5</f>
         <v>177</v>
       </c>
-      <c r="G6" t="s" s="5">
+      <c r="G6" t="s" s="13">
         <v>178</v>
       </c>
-      <c r="H6" t="s" s="5">
+      <c r="H6" t="s" s="13">
         <v>179</v>
       </c>
-      <c r="I6" t="s" s="5">
+      <c r="I6" t="s" s="13">
         <v>156</v>
       </c>
     </row>
     <row r="7" ht="74.35" customHeight="1">
-      <c r="A7" s="16">
+      <c r="A7" s="24">
         <v>4</v>
       </c>
-      <c r="B7" t="s" s="5">
+      <c r="B7" t="s" s="13">
         <v>159</v>
       </c>
-      <c r="C7" t="s" s="5">
+      <c r="C7" t="s" s="13">
         <v>180</v>
       </c>
-      <c r="D7" t="s" s="5">
+      <c r="D7" t="s" s="13">
         <v>181</v>
       </c>
-      <c r="E7" t="s" s="5">
+      <c r="E7" t="s" s="13">
         <v>168</v>
       </c>
-      <c r="F7" t="s" s="5">
+      <c r="F7" t="s" s="13">
         <v>169</v>
       </c>
-      <c r="G7" t="s" s="5">
+      <c r="G7" t="s" s="13">
         <v>182</v>
       </c>
-      <c r="H7" t="s" s="5">
+      <c r="H7" t="s" s="13">
         <v>183</v>
       </c>
-      <c r="I7" t="s" s="5">
+      <c r="I7" t="s" s="13">
         <v>184</v>
       </c>
     </row>
     <row r="8" ht="50.35" customHeight="1">
-      <c r="A8" s="16">
+      <c r="A8" s="24">
         <v>5</v>
       </c>
-      <c r="B8" t="s" s="5">
+      <c r="B8" t="s" s="13">
         <v>159</v>
       </c>
-      <c r="C8" t="s" s="5">
+      <c r="C8" t="s" s="13">
         <v>185</v>
       </c>
-      <c r="D8" t="s" s="5">
+      <c r="D8" t="s" s="13">
         <v>186</v>
       </c>
-      <c r="E8" t="s" s="5">
+      <c r="E8" t="s" s="13">
         <v>187</v>
       </c>
-      <c r="F8" t="s" s="5">
+      <c r="F8" t="s" s="13">
         <v>169</v>
       </c>
-      <c r="G8" t="s" s="5">
+      <c r="G8" t="s" s="13">
         <v>188</v>
       </c>
-      <c r="H8" t="s" s="5">
+      <c r="H8" t="s" s="13">
         <v>189</v>
       </c>
-      <c r="I8" t="s" s="5">
+      <c r="I8" t="s" s="13">
         <v>190</v>
       </c>
     </row>
     <row r="9" ht="74.35" customHeight="1">
-      <c r="A9" s="16">
+      <c r="A9" s="24">
         <v>6</v>
       </c>
-      <c r="B9" t="s" s="5">
+      <c r="B9" t="s" s="13">
         <v>191</v>
       </c>
-      <c r="C9" t="s" s="5">
+      <c r="C9" t="s" s="13">
         <v>192</v>
       </c>
-      <c r="D9" t="s" s="5">
+      <c r="D9" t="s" s="13">
         <v>193</v>
       </c>
-      <c r="E9" t="s" s="5">
+      <c r="E9" t="s" s="13">
         <v>194</v>
       </c>
-      <c r="F9" t="s" s="5">
+      <c r="F9" t="s" s="13">
         <v>195</v>
       </c>
-      <c r="G9" t="s" s="5">
+      <c r="G9" t="s" s="13">
         <v>196</v>
       </c>
-      <c r="H9" t="s" s="5">
+      <c r="H9" t="s" s="13">
         <v>197</v>
       </c>
-      <c r="I9" t="s" s="5">
+      <c r="I9" t="s" s="13">
         <v>198</v>
       </c>
     </row>
     <row r="10" ht="62.35" customHeight="1">
-      <c r="A10" s="16">
+      <c r="A10" s="24">
         <v>7</v>
       </c>
-      <c r="B10" t="s" s="5">
+      <c r="B10" t="s" s="13">
         <v>191</v>
       </c>
-      <c r="C10" t="s" s="5">
+      <c r="C10" t="s" s="13">
         <v>192</v>
       </c>
-      <c r="D10" t="s" s="5">
+      <c r="D10" t="s" s="13">
         <v>199</v>
       </c>
-      <c r="E10" t="s" s="5">
+      <c r="E10" t="s" s="13">
         <v>200</v>
       </c>
-      <c r="F10" t="s" s="5">
+      <c r="F10" t="s" s="13">
         <v>201</v>
       </c>
-      <c r="G10" t="s" s="5">
+      <c r="G10" t="s" s="13">
         <v>202</v>
       </c>
-      <c r="H10" t="s" s="5">
+      <c r="H10" t="s" s="13">
         <v>203</v>
       </c>
-      <c r="I10" t="s" s="5">
+      <c r="I10" t="s" s="13">
         <v>156</v>
       </c>
     </row>
     <row r="11" ht="62.35" customHeight="1">
-      <c r="A11" s="16">
+      <c r="A11" s="24">
         <f>A10</f>
         <v>7</v>
       </c>
-      <c r="B11" t="s" s="5">
+      <c r="B11" t="s" s="13">
         <f>B10</f>
         <v>204</v>
       </c>
-      <c r="C11" t="s" s="5">
+      <c r="C11" t="s" s="13">
         <f>C10</f>
         <v>205</v>
       </c>
-      <c r="D11" t="s" s="5">
+      <c r="D11" t="s" s="13">
         <f>D10</f>
         <v>206</v>
       </c>
-      <c r="E11" t="s" s="5">
+      <c r="E11" t="s" s="13">
         <f>E10</f>
         <v>207</v>
       </c>
-      <c r="F11" t="s" s="5">
+      <c r="F11" t="s" s="13">
         <f>F10</f>
         <v>208</v>
       </c>
-      <c r="G11" t="s" s="5">
+      <c r="G11" t="s" s="13">
         <v>209</v>
       </c>
-      <c r="H11" t="s" s="5">
+      <c r="H11" t="s" s="13">
         <v>210</v>
       </c>
-      <c r="I11" t="s" s="5">
+      <c r="I11" t="s" s="13">
         <v>172</v>
       </c>
     </row>
     <row r="12" ht="62.35" customHeight="1">
-      <c r="A12" s="16">
+      <c r="A12" s="24">
         <f>A10</f>
         <v>7</v>
       </c>
-      <c r="B12" t="s" s="5">
+      <c r="B12" t="s" s="13">
         <f>B10</f>
         <v>204</v>
       </c>
-      <c r="C12" t="s" s="5">
+      <c r="C12" t="s" s="13">
         <f>C10</f>
         <v>205</v>
       </c>
-      <c r="D12" t="s" s="5">
+      <c r="D12" t="s" s="13">
         <f>D10</f>
         <v>206</v>
       </c>
-      <c r="E12" t="s" s="5">
+      <c r="E12" t="s" s="13">
         <f>E10</f>
         <v>207</v>
       </c>
-      <c r="F12" t="s" s="5">
+      <c r="F12" t="s" s="13">
         <f>F10</f>
         <v>208</v>
       </c>
-      <c r="G12" t="s" s="5">
+      <c r="G12" t="s" s="13">
         <v>211</v>
       </c>
-      <c r="H12" t="s" s="5">
+      <c r="H12" t="s" s="13">
         <v>212</v>
       </c>
-      <c r="I12" t="s" s="5">
+      <c r="I12" t="s" s="13">
         <v>213</v>
       </c>
     </row>
     <row r="13" ht="98.35" customHeight="1">
-      <c r="A13" s="16">
+      <c r="A13" s="24">
         <v>8</v>
       </c>
-      <c r="B13" t="s" s="5">
+      <c r="B13" t="s" s="13">
         <v>191</v>
       </c>
-      <c r="C13" t="s" s="5">
+      <c r="C13" t="s" s="13">
         <v>192</v>
       </c>
-      <c r="D13" t="s" s="5">
+      <c r="D13" t="s" s="13">
         <v>214</v>
       </c>
-      <c r="E13" t="s" s="5">
+      <c r="E13" t="s" s="13">
         <v>215</v>
       </c>
-      <c r="F13" t="s" s="5">
+      <c r="F13" t="s" s="13">
         <v>216</v>
       </c>
-      <c r="G13" t="s" s="5">
+      <c r="G13" t="s" s="13">
         <v>217</v>
       </c>
-      <c r="H13" t="s" s="5">
+      <c r="H13" t="s" s="13">
         <v>218</v>
       </c>
-      <c r="I13" t="s" s="5">
+      <c r="I13" t="s" s="13">
         <v>172</v>
       </c>
     </row>
     <row r="14" ht="98.35" customHeight="1">
-      <c r="A14" s="16">
+      <c r="A14" s="24">
         <f>A13</f>
         <v>8</v>
       </c>
-      <c r="B14" t="s" s="5">
+      <c r="B14" t="s" s="13">
         <f>B13</f>
         <v>204</v>
       </c>
-      <c r="C14" t="s" s="5">
+      <c r="C14" t="s" s="13">
         <f>C13</f>
         <v>205</v>
       </c>
-      <c r="D14" t="s" s="5">
+      <c r="D14" t="s" s="13">
         <f>D13</f>
         <v>219</v>
       </c>
-      <c r="E14" t="s" s="5">
+      <c r="E14" t="s" s="13">
         <f>E13</f>
         <v>220</v>
       </c>
-      <c r="F14" t="s" s="5">
+      <c r="F14" t="s" s="13">
         <f>F13</f>
         <v>221</v>
       </c>
-      <c r="G14" t="s" s="5">
+      <c r="G14" t="s" s="13">
         <v>222</v>
       </c>
-      <c r="H14" t="s" s="5">
+      <c r="H14" t="s" s="13">
         <v>223</v>
       </c>
-      <c r="I14" t="s" s="5">
+      <c r="I14" t="s" s="13">
         <v>213</v>
       </c>
     </row>
     <row r="15" ht="134.35" customHeight="1">
-      <c r="A15" s="16">
+      <c r="A15" s="24">
         <f>A13</f>
         <v>8</v>
       </c>
-      <c r="B15" t="s" s="5">
+      <c r="B15" t="s" s="13">
         <f>B13</f>
         <v>204</v>
       </c>
-      <c r="C15" t="s" s="5">
+      <c r="C15" t="s" s="13">
         <f>C13</f>
         <v>205</v>
       </c>
-      <c r="D15" t="s" s="5">
+      <c r="D15" t="s" s="13">
         <f>D13</f>
         <v>219</v>
       </c>
-      <c r="E15" t="s" s="5">
+      <c r="E15" t="s" s="13">
         <f>E13</f>
         <v>220</v>
       </c>
-      <c r="F15" t="s" s="5">
+      <c r="F15" t="s" s="13">
         <f>F13</f>
         <v>221</v>
       </c>
-      <c r="G15" t="s" s="5">
+      <c r="G15" t="s" s="13">
         <v>224</v>
       </c>
-      <c r="H15" t="s" s="5">
+      <c r="H15" t="s" s="13">
         <v>225</v>
       </c>
-      <c r="I15" t="s" s="5">
+      <c r="I15" t="s" s="13">
         <v>172</v>
       </c>
     </row>
     <row r="16" ht="38.35" customHeight="1">
-      <c r="A16" s="16">
+      <c r="A16" s="24">
         <v>9</v>
       </c>
-      <c r="B16" t="s" s="5">
+      <c r="B16" t="s" s="13">
         <v>191</v>
       </c>
-      <c r="C16" t="s" s="5">
+      <c r="C16" t="s" s="13">
         <v>226</v>
       </c>
-      <c r="D16" t="s" s="5">
+      <c r="D16" t="s" s="13">
         <v>227</v>
       </c>
-      <c r="E16" t="s" s="5">
+      <c r="E16" t="s" s="13">
         <v>228</v>
       </c>
-      <c r="F16" t="s" s="5">
+      <c r="F16" t="s" s="13">
         <v>229</v>
       </c>
-      <c r="G16" t="s" s="5">
+      <c r="G16" t="s" s="13">
         <v>230</v>
       </c>
-      <c r="H16" t="s" s="5">
+      <c r="H16" t="s" s="13">
         <v>231</v>
       </c>
-      <c r="I16" t="s" s="5">
+      <c r="I16" t="s" s="13">
         <v>172</v>
       </c>
     </row>
     <row r="17" ht="38.35" customHeight="1">
-      <c r="A17" s="16">
+      <c r="A17" s="24">
         <f>A16</f>
         <v>9</v>
       </c>
-      <c r="B17" t="s" s="5">
+      <c r="B17" t="s" s="13">
         <f>B16</f>
         <v>204</v>
       </c>
-      <c r="C17" t="s" s="5">
+      <c r="C17" t="s" s="13">
         <f>C16</f>
         <v>232</v>
       </c>
-      <c r="D17" t="s" s="5">
+      <c r="D17" t="s" s="13">
         <f>D16</f>
         <v>233</v>
       </c>
-      <c r="E17" t="s" s="5">
+      <c r="E17" t="s" s="13">
         <f>E16</f>
         <v>234</v>
       </c>
-      <c r="F17" t="s" s="5">
+      <c r="F17" t="s" s="13">
         <f>F16</f>
         <v>235</v>
       </c>
-      <c r="G17" t="s" s="5">
+      <c r="G17" t="s" s="13">
         <f>G16</f>
         <v>236</v>
       </c>
-      <c r="H17" t="s" s="5">
+      <c r="H17" t="s" s="13">
         <f>H16</f>
         <v>237</v>
       </c>
-      <c r="I17" t="s" s="5">
+      <c r="I17" t="s" s="13">
         <v>156</v>
       </c>
     </row>
     <row r="18" ht="50.35" customHeight="1">
-      <c r="A18" s="16">
+      <c r="A18" s="24">
         <v>10</v>
       </c>
-      <c r="B18" t="s" s="5">
+      <c r="B18" t="s" s="13">
         <v>238</v>
       </c>
-      <c r="C18" t="s" s="5">
+      <c r="C18" t="s" s="13">
         <v>239</v>
       </c>
-      <c r="D18" t="s" s="5">
+      <c r="D18" t="s" s="13">
         <v>240</v>
       </c>
-      <c r="E18" t="s" s="5">
+      <c r="E18" t="s" s="13">
         <v>241</v>
       </c>
-      <c r="F18" t="s" s="5">
+      <c r="F18" t="s" s="13">
         <v>36</v>
       </c>
-      <c r="G18" t="s" s="5">
+      <c r="G18" t="s" s="13">
         <v>242</v>
       </c>
-      <c r="H18" t="s" s="5">
+      <c r="H18" t="s" s="13">
         <v>243</v>
       </c>
-      <c r="I18" t="s" s="5">
+      <c r="I18" t="s" s="13">
         <v>172</v>
       </c>
     </row>
     <row r="19" ht="122.35" customHeight="1">
-      <c r="A19" s="16">
+      <c r="A19" s="24">
         <v>11</v>
       </c>
-      <c r="B19" t="s" s="5">
+      <c r="B19" t="s" s="13">
         <v>244</v>
       </c>
-      <c r="C19" t="s" s="5">
+      <c r="C19" t="s" s="13">
         <v>245</v>
       </c>
-      <c r="D19" t="s" s="5">
+      <c r="D19" t="s" s="13">
         <v>246</v>
       </c>
-      <c r="E19" t="s" s="5">
+      <c r="E19" t="s" s="13">
         <v>247</v>
       </c>
-      <c r="F19" t="s" s="5">
+      <c r="F19" t="s" s="13">
         <v>248</v>
       </c>
-      <c r="G19" t="s" s="5">
+      <c r="G19" t="s" s="13">
         <v>249</v>
       </c>
-      <c r="H19" t="s" s="5">
+      <c r="H19" t="s" s="13">
         <v>250</v>
       </c>
-      <c r="I19" t="s" s="5">
+      <c r="I19" t="s" s="13">
         <v>172</v>
       </c>
     </row>
     <row r="20" ht="50.35" customHeight="1">
-      <c r="A20" s="16">
+      <c r="A20" s="24">
         <v>12</v>
       </c>
-      <c r="B20" t="s" s="5">
+      <c r="B20" t="s" s="13">
         <v>244</v>
       </c>
-      <c r="C20" t="s" s="5">
+      <c r="C20" t="s" s="13">
         <v>245</v>
       </c>
-      <c r="D20" t="s" s="5">
+      <c r="D20" t="s" s="13">
         <v>251</v>
       </c>
-      <c r="E20" t="s" s="5">
+      <c r="E20" t="s" s="13">
         <v>252</v>
       </c>
-      <c r="F20" t="s" s="5">
+      <c r="F20" t="s" s="13">
         <v>253</v>
       </c>
-      <c r="G20" t="s" s="5">
+      <c r="G20" t="s" s="13">
         <v>254</v>
       </c>
-      <c r="H20" t="s" s="5">
+      <c r="H20" t="s" s="13">
         <v>255</v>
       </c>
-      <c r="I20" t="s" s="5">
+      <c r="I20" t="s" s="13">
         <v>213</v>
       </c>
     </row>
     <row r="21" ht="50.35" customHeight="1">
-      <c r="A21" s="16">
+      <c r="A21" s="24">
         <v>13</v>
       </c>
-      <c r="B21" t="s" s="5">
+      <c r="B21" t="s" s="13">
         <v>244</v>
       </c>
-      <c r="C21" t="s" s="5">
+      <c r="C21" t="s" s="13">
         <v>245</v>
       </c>
-      <c r="D21" t="s" s="5">
+      <c r="D21" t="s" s="13">
         <v>256</v>
       </c>
-      <c r="E21" t="s" s="5">
+      <c r="E21" t="s" s="13">
         <v>257</v>
       </c>
-      <c r="F21" t="s" s="5">
+      <c r="F21" t="s" s="13">
         <v>258</v>
       </c>
-      <c r="G21" t="s" s="5">
+      <c r="G21" t="s" s="13">
         <v>259</v>
       </c>
-      <c r="H21" t="s" s="5">
+      <c r="H21" t="s" s="13">
         <v>260</v>
       </c>
-      <c r="I21" t="s" s="5">
+      <c r="I21" t="s" s="13">
         <v>213</v>
       </c>
     </row>
     <row r="22" ht="62.35" customHeight="1">
-      <c r="A22" s="16">
+      <c r="A22" s="24">
         <v>14</v>
       </c>
-      <c r="B22" t="s" s="5">
+      <c r="B22" t="s" s="13">
         <v>244</v>
       </c>
-      <c r="C22" t="s" s="5">
+      <c r="C22" t="s" s="13">
         <v>261</v>
       </c>
-      <c r="D22" t="s" s="5">
+      <c r="D22" t="s" s="13">
         <v>262</v>
       </c>
-      <c r="E22" t="s" s="5">
+      <c r="E22" t="s" s="13">
         <v>263</v>
       </c>
-      <c r="F22" t="s" s="5">
+      <c r="F22" t="s" s="13">
         <v>264</v>
       </c>
-      <c r="G22" t="s" s="5">
+      <c r="G22" t="s" s="13">
         <v>265</v>
       </c>
-      <c r="H22" t="s" s="5">
+      <c r="H22" t="s" s="13">
         <v>266</v>
       </c>
-      <c r="I22" t="s" s="5">
+      <c r="I22" t="s" s="13">
         <v>213</v>
       </c>
     </row>
     <row r="23" ht="62.35" customHeight="1">
-      <c r="A23" s="16">
+      <c r="A23" s="24">
         <f>A22</f>
         <v>14</v>
       </c>
-      <c r="B23" t="s" s="5">
+      <c r="B23" t="s" s="13">
         <f>B22</f>
         <v>267</v>
       </c>
-      <c r="C23" t="s" s="5">
+      <c r="C23" t="s" s="13">
         <f>C22</f>
         <v>268</v>
       </c>
-      <c r="D23" t="s" s="5">
+      <c r="D23" t="s" s="13">
         <f>D22</f>
         <v>269</v>
       </c>
-      <c r="E23" t="s" s="5">
+      <c r="E23" t="s" s="13">
         <f>E22</f>
         <v>270</v>
       </c>
-      <c r="F23" t="s" s="5">
+      <c r="F23" t="s" s="13">
         <f>F22</f>
         <v>271</v>
       </c>
-      <c r="G23" t="s" s="5">
+      <c r="G23" t="s" s="13">
         <v>272</v>
       </c>
-      <c r="H23" t="s" s="5">
+      <c r="H23" t="s" s="13">
         <v>273</v>
       </c>
-      <c r="I23" t="s" s="5">
+      <c r="I23" t="s" s="13">
         <v>172</v>
       </c>
     </row>
     <row r="24" ht="50.35" customHeight="1">
-      <c r="A24" s="16">
+      <c r="A24" s="24">
         <v>15</v>
       </c>
-      <c r="B24" t="s" s="5">
+      <c r="B24" t="s" s="13">
         <v>274</v>
       </c>
-      <c r="C24" t="s" s="5">
+      <c r="C24" t="s" s="13">
         <v>275</v>
       </c>
-      <c r="D24" t="s" s="5">
+      <c r="D24" t="s" s="13">
         <v>276</v>
       </c>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
     </row>
     <row r="25" ht="26.35" customHeight="1">
-      <c r="A25" s="16">
+      <c r="A25" s="24">
         <v>16</v>
       </c>
-      <c r="B25" t="s" s="5">
+      <c r="B25" t="s" s="13">
         <v>277</v>
       </c>
-      <c r="C25" t="s" s="5">
+      <c r="C25" t="s" s="13">
         <v>275</v>
       </c>
-      <c r="D25" t="s" s="5">
+      <c r="D25" t="s" s="13">
         <v>278</v>
       </c>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
     </row>
     <row r="26" ht="62.35" customHeight="1">
-      <c r="A26" s="16">
+      <c r="A26" s="24">
         <v>17</v>
       </c>
-      <c r="B26" t="s" s="5">
+      <c r="B26" t="s" s="13">
         <v>279</v>
       </c>
-      <c r="C26" t="s" s="5">
+      <c r="C26" t="s" s="13">
         <v>280</v>
       </c>
-      <c r="D26" t="s" s="5">
+      <c r="D26" t="s" s="13">
         <v>281</v>
       </c>
-      <c r="E26" t="s" s="5">
+      <c r="E26" t="s" s="13">
         <v>282</v>
       </c>
-      <c r="F26" t="s" s="5">
+      <c r="F26" t="s" s="13">
         <v>283</v>
       </c>
-      <c r="G26" t="s" s="5">
+      <c r="G26" t="s" s="13">
         <v>284</v>
       </c>
-      <c r="H26" t="s" s="5">
+      <c r="H26" t="s" s="13">
         <v>285</v>
       </c>
-      <c r="I26" t="s" s="5">
+      <c r="I26" t="s" s="13">
         <v>213</v>
       </c>
     </row>
     <row r="27" ht="50.35" customHeight="1">
-      <c r="A27" s="16">
+      <c r="A27" s="24">
         <v>18</v>
       </c>
-      <c r="B27" t="s" s="5">
+      <c r="B27" t="s" s="13">
         <v>279</v>
       </c>
-      <c r="C27" t="s" s="5">
+      <c r="C27" t="s" s="13">
         <v>280</v>
       </c>
-      <c r="D27" t="s" s="5">
+      <c r="D27" t="s" s="13">
         <v>286</v>
       </c>
-      <c r="E27" t="s" s="5">
+      <c r="E27" t="s" s="13">
         <v>282</v>
       </c>
-      <c r="F27" t="s" s="5">
+      <c r="F27" t="s" s="13">
         <v>287</v>
       </c>
-      <c r="G27" t="s" s="5">
+      <c r="G27" t="s" s="13">
         <v>288</v>
       </c>
-      <c r="H27" t="s" s="5">
+      <c r="H27" t="s" s="13">
         <v>289</v>
       </c>
-      <c r="I27" t="s" s="5">
+      <c r="I27" t="s" s="13">
         <v>213</v>
       </c>
     </row>
     <row r="28" ht="62.35" customHeight="1">
-      <c r="A28" s="16">
+      <c r="A28" s="24">
         <f>A27</f>
         <v>18</v>
       </c>
-      <c r="B28" t="s" s="5">
+      <c r="B28" t="s" s="13">
         <f>B27</f>
         <v>290</v>
       </c>
-      <c r="C28" t="s" s="5">
+      <c r="C28" t="s" s="13">
         <f>C27</f>
         <v>291</v>
       </c>
-      <c r="D28" t="s" s="5">
+      <c r="D28" t="s" s="13">
         <f>D27</f>
         <v>292</v>
       </c>
-      <c r="E28" t="s" s="5">
+      <c r="E28" t="s" s="13">
         <f>E27</f>
         <v>293</v>
       </c>
-      <c r="F28" t="s" s="5">
+      <c r="F28" t="s" s="13">
         <f>F27</f>
         <v>294</v>
       </c>
-      <c r="G28" t="s" s="5">
+      <c r="G28" t="s" s="13">
         <v>295</v>
       </c>
-      <c r="H28" t="s" s="5">
+      <c r="H28" t="s" s="13">
         <v>296</v>
       </c>
-      <c r="I28" t="s" s="5">
+      <c r="I28" t="s" s="13">
         <v>198</v>
       </c>
     </row>
     <row r="29" ht="74.35" customHeight="1">
-      <c r="A29" s="16">
+      <c r="A29" s="24">
         <v>19</v>
       </c>
-      <c r="B29" t="s" s="5">
+      <c r="B29" t="s" s="13">
         <v>279</v>
       </c>
-      <c r="C29" t="s" s="5">
+      <c r="C29" t="s" s="13">
         <v>297</v>
       </c>
-      <c r="D29" t="s" s="5">
+      <c r="D29" t="s" s="13">
         <v>298</v>
       </c>
-      <c r="E29" t="s" s="5">
+      <c r="E29" t="s" s="13">
         <v>299</v>
       </c>
-      <c r="F29" t="s" s="5">
+      <c r="F29" t="s" s="13">
         <v>300</v>
       </c>
-      <c r="G29" t="s" s="5">
+      <c r="G29" t="s" s="13">
         <v>301</v>
       </c>
-      <c r="H29" t="s" s="5">
+      <c r="H29" t="s" s="13">
         <v>302</v>
       </c>
-      <c r="I29" t="s" s="5">
+      <c r="I29" t="s" s="13">
         <v>198</v>
       </c>
     </row>
     <row r="30" ht="74.35" customHeight="1">
-      <c r="A30" s="16">
+      <c r="A30" s="24">
         <v>20</v>
       </c>
-      <c r="B30" t="s" s="5">
+      <c r="B30" t="s" s="13">
         <v>279</v>
       </c>
-      <c r="C30" t="s" s="5">
+      <c r="C30" t="s" s="13">
         <v>303</v>
       </c>
-      <c r="D30" t="s" s="5">
+      <c r="D30" t="s" s="13">
         <v>304</v>
       </c>
-      <c r="E30" t="s" s="5">
+      <c r="E30" t="s" s="13">
         <v>299</v>
       </c>
-      <c r="F30" t="s" s="5">
+      <c r="F30" t="s" s="13">
         <v>36</v>
       </c>
-      <c r="G30" t="s" s="5">
+      <c r="G30" t="s" s="13">
         <v>305</v>
       </c>
-      <c r="H30" t="s" s="5">
+      <c r="H30" t="s" s="13">
         <v>306</v>
       </c>
-      <c r="I30" t="s" s="5">
+      <c r="I30" t="s" s="13">
         <v>156</v>
       </c>
     </row>
     <row r="31" ht="50.35" customHeight="1">
-      <c r="A31" s="16">
+      <c r="A31" s="24">
         <v>21</v>
       </c>
-      <c r="B31" t="s" s="5">
+      <c r="B31" t="s" s="13">
         <v>307</v>
       </c>
-      <c r="C31" t="s" s="5">
+      <c r="C31" t="s" s="13">
         <v>308</v>
       </c>
-      <c r="D31" t="s" s="5">
+      <c r="D31" t="s" s="13">
         <v>309</v>
       </c>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
     </row>
     <row r="32" ht="74.35" customHeight="1">
-      <c r="A32" s="16">
+      <c r="A32" s="24">
         <v>22</v>
       </c>
-      <c r="B32" t="s" s="5">
+      <c r="B32" t="s" s="13">
         <v>307</v>
       </c>
-      <c r="C32" t="s" s="5">
+      <c r="C32" t="s" s="13">
         <v>310</v>
       </c>
-      <c r="D32" t="s" s="5">
+      <c r="D32" t="s" s="13">
         <v>311</v>
       </c>
-      <c r="E32" t="s" s="5">
+      <c r="E32" t="s" s="13">
         <v>312</v>
       </c>
-      <c r="F32" t="s" s="5">
+      <c r="F32" t="s" s="13">
         <v>313</v>
       </c>
-      <c r="G32" t="s" s="5">
+      <c r="G32" t="s" s="13">
         <v>314</v>
       </c>
-      <c r="H32" t="s" s="5">
+      <c r="H32" t="s" s="13">
         <v>315</v>
       </c>
-      <c r="I32" t="s" s="5">
+      <c r="I32" t="s" s="13">
         <v>190</v>
       </c>
     </row>
     <row r="33" ht="74.35" customHeight="1">
-      <c r="A33" s="16">
+      <c r="A33" s="24">
         <v>23</v>
       </c>
-      <c r="B33" t="s" s="5">
+      <c r="B33" t="s" s="13">
         <v>316</v>
       </c>
-      <c r="C33" t="s" s="5">
+      <c r="C33" t="s" s="13">
         <v>36</v>
       </c>
-      <c r="D33" t="s" s="5">
+      <c r="D33" t="s" s="13">
         <v>317</v>
       </c>
-      <c r="E33" t="s" s="5">
+      <c r="E33" t="s" s="13">
         <v>318</v>
       </c>
-      <c r="F33" t="s" s="5">
+      <c r="F33" t="s" s="13">
         <v>319</v>
       </c>
-      <c r="G33" t="s" s="5">
+      <c r="G33" t="s" s="13">
         <v>320</v>
       </c>
-      <c r="H33" t="s" s="5">
+      <c r="H33" t="s" s="13">
         <v>321</v>
       </c>
-      <c r="I33" t="s" s="5">
+      <c r="I33" t="s" s="13">
         <v>213</v>
       </c>
     </row>
     <row r="34" ht="62.35" customHeight="1">
-      <c r="A34" s="16">
+      <c r="A34" s="24">
         <v>24</v>
       </c>
-      <c r="B34" t="s" s="5">
+      <c r="B34" t="s" s="13">
         <v>316</v>
       </c>
-      <c r="C34" t="s" s="5">
+      <c r="C34" t="s" s="13">
         <v>308</v>
       </c>
-      <c r="D34" t="s" s="5">
+      <c r="D34" t="s" s="13">
         <v>322</v>
       </c>
-      <c r="E34" t="s" s="5">
+      <c r="E34" t="s" s="13">
         <v>323</v>
       </c>
-      <c r="F34" t="s" s="5">
+      <c r="F34" t="s" s="13">
         <v>324</v>
       </c>
-      <c r="G34" t="s" s="5">
+      <c r="G34" t="s" s="13">
         <v>325</v>
       </c>
-      <c r="H34" t="s" s="5">
+      <c r="H34" t="s" s="13">
         <v>326</v>
       </c>
-      <c r="I34" t="s" s="5">
+      <c r="I34" t="s" s="13">
         <v>213</v>
       </c>
     </row>
     <row r="35" ht="62.35" customHeight="1">
-      <c r="A35" s="16">
+      <c r="A35" s="24">
         <f>A34</f>
         <v>24</v>
       </c>
-      <c r="B35" t="s" s="5">
+      <c r="B35" t="s" s="13">
         <f>B34</f>
         <v>327</v>
       </c>
-      <c r="C35" t="s" s="5">
+      <c r="C35" t="s" s="13">
         <f>C34</f>
         <v>328</v>
       </c>
-      <c r="D35" t="s" s="5">
+      <c r="D35" t="s" s="13">
         <f>D34</f>
         <v>329</v>
       </c>
-      <c r="E35" t="s" s="5">
+      <c r="E35" t="s" s="13">
         <f>E34</f>
         <v>330</v>
       </c>
-      <c r="F35" t="s" s="5">
+      <c r="F35" t="s" s="13">
         <f>F34</f>
         <v>331</v>
       </c>
-      <c r="G35" t="s" s="5">
+      <c r="G35" t="s" s="13">
         <v>332</v>
       </c>
-      <c r="H35" t="s" s="5">
+      <c r="H35" t="s" s="13">
         <v>333</v>
       </c>
-      <c r="I35" t="s" s="5">
+      <c r="I35" t="s" s="13">
         <v>213</v>
       </c>
     </row>
     <row r="36" ht="74.35" customHeight="1">
-      <c r="A36" s="16">
+      <c r="A36" s="24">
         <v>25</v>
       </c>
-      <c r="B36" t="s" s="5">
+      <c r="B36" t="s" s="13">
         <v>334</v>
       </c>
-      <c r="C36" t="s" s="5">
+      <c r="C36" t="s" s="13">
         <v>335</v>
       </c>
-      <c r="D36" t="s" s="5">
+      <c r="D36" t="s" s="13">
         <v>336</v>
       </c>
-      <c r="E36" t="s" s="5">
+      <c r="E36" t="s" s="13">
         <v>337</v>
       </c>
-      <c r="F36" t="s" s="5">
+      <c r="F36" t="s" s="13">
         <v>324</v>
       </c>
-      <c r="G36" t="s" s="5">
+      <c r="G36" t="s" s="13">
         <v>338</v>
       </c>
-      <c r="H36" t="s" s="5">
+      <c r="H36" t="s" s="13">
         <v>339</v>
       </c>
-      <c r="I36" t="s" s="5">
+      <c r="I36" t="s" s="13">
         <v>198</v>
       </c>
     </row>
     <row r="37" ht="74.35" customHeight="1">
-      <c r="A37" s="16">
+      <c r="A37" s="24">
         <f>A36</f>
         <v>25</v>
       </c>
-      <c r="B37" t="s" s="5">
+      <c r="B37" t="s" s="13">
         <f>B36</f>
         <v>340</v>
       </c>
-      <c r="C37" t="s" s="5">
+      <c r="C37" t="s" s="13">
         <f>C36</f>
         <v>341</v>
       </c>
-      <c r="D37" t="s" s="5">
+      <c r="D37" t="s" s="13">
         <f>D36</f>
         <v>342</v>
       </c>
-      <c r="E37" t="s" s="5">
+      <c r="E37" t="s" s="13">
         <f>E36</f>
         <v>343</v>
       </c>
-      <c r="F37" t="s" s="5">
+      <c r="F37" t="s" s="13">
         <f>F36</f>
         <v>331</v>
       </c>
-      <c r="G37" t="s" s="5">
+      <c r="G37" t="s" s="13">
         <v>344</v>
       </c>
-      <c r="H37" t="s" s="5">
+      <c r="H37" t="s" s="13">
         <v>345</v>
       </c>
-      <c r="I37" t="s" s="5">
+      <c r="I37" t="s" s="13">
         <v>213</v>
       </c>
     </row>
     <row r="38" ht="86.35" customHeight="1">
-      <c r="A38" s="16">
+      <c r="A38" s="24">
         <v>26</v>
       </c>
-      <c r="B38" t="s" s="5">
+      <c r="B38" t="s" s="13">
         <v>334</v>
       </c>
-      <c r="C38" t="s" s="5">
+      <c r="C38" t="s" s="13">
         <v>308</v>
       </c>
-      <c r="D38" t="s" s="5">
+      <c r="D38" t="s" s="13">
         <v>346</v>
       </c>
-      <c r="E38" t="s" s="5">
+      <c r="E38" t="s" s="13">
         <v>347</v>
       </c>
-      <c r="F38" s="17"/>
-      <c r="G38" t="s" s="5">
+      <c r="F38" s="25"/>
+      <c r="G38" t="s" s="13">
         <v>348</v>
       </c>
-      <c r="H38" t="s" s="5">
+      <c r="H38" t="s" s="13">
         <v>349</v>
       </c>
-      <c r="I38" t="s" s="5">
+      <c r="I38" t="s" s="13">
         <v>198</v>
       </c>
     </row>
     <row r="39" ht="50.35" customHeight="1">
-      <c r="A39" s="16">
+      <c r="A39" s="24">
         <v>27</v>
       </c>
-      <c r="B39" t="s" s="5">
+      <c r="B39" t="s" s="13">
         <v>350</v>
       </c>
-      <c r="C39" t="s" s="5">
+      <c r="C39" t="s" s="13">
         <v>351</v>
       </c>
-      <c r="D39" s="17"/>
-      <c r="E39" t="s" s="5">
+      <c r="D39" s="25"/>
+      <c r="E39" t="s" s="13">
         <v>352</v>
       </c>
-      <c r="F39" s="17"/>
-      <c r="G39" t="s" s="5">
+      <c r="F39" s="25"/>
+      <c r="G39" t="s" s="13">
         <v>353</v>
       </c>
-      <c r="H39" t="s" s="5">
+      <c r="H39" t="s" s="13">
         <v>354</v>
       </c>
-      <c r="I39" t="s" s="5">
+      <c r="I39" t="s" s="13">
         <v>184</v>
       </c>
     </row>
     <row r="40" ht="50.35" customHeight="1">
-      <c r="A40" s="16">
+      <c r="A40" s="24">
         <v>28</v>
       </c>
-      <c r="B40" t="s" s="5">
+      <c r="B40" t="s" s="13">
         <v>350</v>
       </c>
-      <c r="C40" t="s" s="5">
+      <c r="C40" t="s" s="13">
         <v>355</v>
       </c>
-      <c r="D40" t="s" s="5">
+      <c r="D40" t="s" s="13">
         <v>356</v>
       </c>
-      <c r="E40" t="s" s="5">
+      <c r="E40" t="s" s="13">
         <v>357</v>
       </c>
-      <c r="F40" t="s" s="5">
+      <c r="F40" t="s" s="13">
         <v>358</v>
       </c>
-      <c r="G40" t="s" s="5">
+      <c r="G40" t="s" s="13">
         <v>359</v>
       </c>
-      <c r="H40" t="s" s="5">
+      <c r="H40" t="s" s="13">
         <v>360</v>
       </c>
-      <c r="I40" t="s" s="5">
+      <c r="I40" t="s" s="13">
         <v>213</v>
       </c>
     </row>
     <row r="41" ht="50.35" customHeight="1">
-      <c r="A41" s="16">
+      <c r="A41" s="24">
         <f>A40</f>
         <v>28</v>
       </c>
-      <c r="B41" t="s" s="5">
+      <c r="B41" t="s" s="13">
         <f>B40</f>
         <v>361</v>
       </c>
-      <c r="C41" t="s" s="5">
+      <c r="C41" t="s" s="13">
         <f>C40</f>
         <v>362</v>
       </c>
-      <c r="D41" t="s" s="5">
+      <c r="D41" t="s" s="13">
         <f>D40</f>
         <v>363</v>
       </c>
-      <c r="E41" t="s" s="5">
+      <c r="E41" t="s" s="13">
         <f>E40</f>
         <v>364</v>
       </c>
-      <c r="F41" t="s" s="5">
+      <c r="F41" t="s" s="13">
         <f>F40</f>
         <v>365</v>
       </c>
-      <c r="G41" t="s" s="5">
+      <c r="G41" t="s" s="13">
         <v>366</v>
       </c>
-      <c r="H41" t="s" s="5">
+      <c r="H41" t="s" s="13">
         <v>367</v>
       </c>
-      <c r="I41" t="s" s="5">
+      <c r="I41" t="s" s="13">
         <v>184</v>
       </c>
     </row>
     <row r="42" ht="38.35" customHeight="1">
-      <c r="A42" s="16">
+      <c r="A42" s="24">
         <v>29</v>
       </c>
-      <c r="B42" t="s" s="5">
+      <c r="B42" t="s" s="13">
         <v>368</v>
       </c>
-      <c r="C42" t="s" s="5">
+      <c r="C42" t="s" s="13">
         <v>369</v>
       </c>
-      <c r="D42" t="s" s="5">
+      <c r="D42" t="s" s="13">
         <v>370</v>
       </c>
-      <c r="E42" t="s" s="5">
+      <c r="E42" t="s" s="13">
         <v>371</v>
       </c>
-      <c r="F42" t="s" s="5">
+      <c r="F42" t="s" s="13">
         <v>36</v>
       </c>
-      <c r="G42" t="s" s="5">
+      <c r="G42" t="s" s="13">
         <v>372</v>
       </c>
-      <c r="H42" t="s" s="5">
+      <c r="H42" t="s" s="13">
         <v>373</v>
       </c>
-      <c r="I42" t="s" s="5">
+      <c r="I42" t="s" s="13">
         <v>172</v>
       </c>
     </row>
     <row r="43" ht="50.35" customHeight="1">
-      <c r="A43" s="16">
+      <c r="A43" s="24">
         <f>A42</f>
         <v>29</v>
       </c>
-      <c r="B43" t="s" s="5">
+      <c r="B43" t="s" s="13">
         <f>B42</f>
         <v>374</v>
       </c>
-      <c r="C43" t="s" s="5">
+      <c r="C43" t="s" s="13">
         <f>C42</f>
         <v>375</v>
       </c>
-      <c r="D43" t="s" s="5">
+      <c r="D43" t="s" s="13">
         <f>D42</f>
         <v>376</v>
       </c>
-      <c r="E43" t="s" s="5">
+      <c r="E43" t="s" s="13">
         <f>E42</f>
         <v>377</v>
       </c>
-      <c r="F43" t="s" s="5">
+      <c r="F43" t="s" s="13">
         <f>F42</f>
         <v>378</v>
       </c>
-      <c r="G43" t="s" s="5">
+      <c r="G43" t="s" s="13">
         <v>379</v>
       </c>
-      <c r="H43" t="s" s="5">
+      <c r="H43" t="s" s="13">
         <v>380</v>
       </c>
-      <c r="I43" t="s" s="5">
+      <c r="I43" t="s" s="13">
         <v>172</v>
       </c>
     </row>
     <row r="44" ht="134.35" customHeight="1">
-      <c r="A44" s="16">
+      <c r="A44" s="24">
         <v>30</v>
       </c>
-      <c r="B44" t="s" s="5">
+      <c r="B44" t="s" s="13">
         <v>381</v>
       </c>
-      <c r="C44" t="s" s="5">
+      <c r="C44" t="s" s="13">
         <v>382</v>
       </c>
-      <c r="D44" t="s" s="5">
+      <c r="D44" t="s" s="13">
         <v>383</v>
       </c>
-      <c r="E44" t="s" s="5">
+      <c r="E44" t="s" s="13">
         <v>384</v>
       </c>
-      <c r="F44" t="s" s="5">
+      <c r="F44" t="s" s="13">
         <v>385</v>
       </c>
-      <c r="G44" t="s" s="5">
+      <c r="G44" t="s" s="13">
         <v>386</v>
       </c>
-      <c r="H44" t="s" s="5">
+      <c r="H44" t="s" s="13">
         <v>387</v>
       </c>
-      <c r="I44" t="s" s="5">
+      <c r="I44" t="s" s="13">
         <v>190</v>
       </c>
     </row>
     <row r="45" ht="50.35" customHeight="1">
-      <c r="A45" s="16">
+      <c r="A45" s="24">
         <v>31</v>
       </c>
-      <c r="B45" t="s" s="5">
+      <c r="B45" t="s" s="13">
         <v>388</v>
       </c>
-      <c r="C45" t="s" s="5">
+      <c r="C45" t="s" s="13">
         <v>389</v>
       </c>
-      <c r="D45" t="s" s="5">
+      <c r="D45" t="s" s="13">
         <v>390</v>
       </c>
-      <c r="E45" t="s" s="5">
+      <c r="E45" t="s" s="13">
         <v>391</v>
       </c>
-      <c r="F45" t="s" s="5">
+      <c r="F45" t="s" s="13">
         <v>392</v>
       </c>
-      <c r="G45" t="s" s="5">
+      <c r="G45" t="s" s="13">
         <v>393</v>
       </c>
-      <c r="H45" t="s" s="5">
+      <c r="H45" t="s" s="13">
         <v>394</v>
       </c>
-      <c r="I45" t="s" s="5">
+      <c r="I45" t="s" s="13">
         <v>172</v>
       </c>
     </row>
     <row r="46" ht="62.35" customHeight="1">
-      <c r="A46" s="16">
+      <c r="A46" s="24">
         <f>A45</f>
         <v>31</v>
       </c>
-      <c r="B46" t="s" s="5">
+      <c r="B46" t="s" s="13">
         <f>B45</f>
         <v>395</v>
       </c>
-      <c r="C46" t="s" s="5">
+      <c r="C46" t="s" s="13">
         <f>C45</f>
         <v>396</v>
       </c>
-      <c r="D46" t="s" s="5">
+      <c r="D46" t="s" s="13">
         <f>D45</f>
         <v>397</v>
       </c>
-      <c r="E46" t="s" s="5">
+      <c r="E46" t="s" s="13">
         <f>E45</f>
         <v>398</v>
       </c>
-      <c r="F46" t="s" s="5">
+      <c r="F46" t="s" s="13">
         <f>F45</f>
         <v>399</v>
       </c>
-      <c r="G46" t="s" s="5">
+      <c r="G46" t="s" s="13">
         <v>400</v>
       </c>
-      <c r="H46" t="s" s="5">
+      <c r="H46" t="s" s="13">
         <v>401</v>
       </c>
-      <c r="I46" t="s" s="5">
+      <c r="I46" t="s" s="13">
         <v>156</v>
       </c>
     </row>
     <row r="47" ht="50.35" customHeight="1">
-      <c r="A47" s="16">
+      <c r="A47" s="24">
         <v>32</v>
       </c>
-      <c r="B47" t="s" s="5">
+      <c r="B47" t="s" s="13">
         <v>402</v>
       </c>
-      <c r="C47" t="s" s="5">
+      <c r="C47" t="s" s="13">
         <v>275</v>
       </c>
-      <c r="D47" t="s" s="5">
+      <c r="D47" t="s" s="13">
         <v>403</v>
       </c>
-      <c r="E47" t="s" s="5">
+      <c r="E47" t="s" s="13">
         <v>404</v>
       </c>
-      <c r="F47" t="s" s="5">
+      <c r="F47" t="s" s="13">
         <v>36</v>
       </c>
-      <c r="G47" t="s" s="5">
+      <c r="G47" t="s" s="13">
         <v>405</v>
       </c>
-      <c r="H47" t="s" s="5">
+      <c r="H47" t="s" s="13">
         <v>406</v>
       </c>
-      <c r="I47" t="s" s="5">
+      <c r="I47" t="s" s="13">
         <v>156</v>
       </c>
     </row>
     <row r="48" ht="50.35" customHeight="1">
-      <c r="A48" s="16">
+      <c r="A48" s="24">
         <f>A47</f>
         <v>32</v>
       </c>
-      <c r="B48" t="s" s="5">
+      <c r="B48" t="s" s="13">
         <f>B47</f>
         <v>407</v>
       </c>
-      <c r="C48" t="s" s="5">
+      <c r="C48" t="s" s="13">
         <f>C47</f>
         <v>408</v>
       </c>
-      <c r="D48" t="s" s="5">
+      <c r="D48" t="s" s="13">
         <f>D47</f>
         <v>409</v>
       </c>
-      <c r="E48" t="s" s="5">
+      <c r="E48" t="s" s="13">
         <f>E47</f>
         <v>410</v>
       </c>
-      <c r="F48" t="s" s="5">
+      <c r="F48" t="s" s="13">
         <f>F47</f>
         <v>378</v>
       </c>
-      <c r="G48" t="s" s="5">
+      <c r="G48" t="s" s="13">
         <v>411</v>
       </c>
-      <c r="H48" t="s" s="5">
+      <c r="H48" t="s" s="13">
         <v>412</v>
       </c>
-      <c r="I48" t="s" s="5">
+      <c r="I48" t="s" s="13">
         <v>198</v>
       </c>
     </row>
     <row r="49" ht="62.35" customHeight="1">
-      <c r="A49" s="16">
+      <c r="A49" s="24">
         <v>33</v>
       </c>
-      <c r="B49" t="s" s="5">
+      <c r="B49" t="s" s="13">
         <v>413</v>
       </c>
-      <c r="C49" t="s" s="5">
+      <c r="C49" t="s" s="13">
         <v>414</v>
       </c>
-      <c r="D49" t="s" s="5">
+      <c r="D49" t="s" s="13">
         <v>415</v>
       </c>
-      <c r="E49" t="s" s="5">
+      <c r="E49" t="s" s="13">
         <v>416</v>
       </c>
-      <c r="F49" s="17"/>
-      <c r="G49" t="s" s="5">
+      <c r="F49" s="25"/>
+      <c r="G49" t="s" s="13">
         <v>417</v>
       </c>
-      <c r="H49" t="s" s="5">
+      <c r="H49" t="s" s="13">
         <v>418</v>
       </c>
-      <c r="I49" t="s" s="5">
+      <c r="I49" t="s" s="13">
         <v>184</v>
       </c>
     </row>
     <row r="50" ht="50.35" customHeight="1">
-      <c r="A50" s="16">
+      <c r="A50" s="24">
         <v>34</v>
       </c>
-      <c r="B50" t="s" s="5">
+      <c r="B50" t="s" s="13">
         <v>419</v>
       </c>
-      <c r="C50" t="s" s="5">
+      <c r="C50" t="s" s="13">
         <v>420</v>
       </c>
-      <c r="D50" t="s" s="5">
+      <c r="D50" t="s" s="13">
         <v>421</v>
       </c>
-      <c r="E50" t="s" s="5">
+      <c r="E50" t="s" s="13">
         <v>422</v>
       </c>
-      <c r="F50" t="s" s="5">
+      <c r="F50" t="s" s="13">
         <v>423</v>
       </c>
-      <c r="G50" t="s" s="5">
+      <c r="G50" t="s" s="13">
         <v>424</v>
       </c>
-      <c r="H50" t="s" s="5">
+      <c r="H50" t="s" s="13">
         <v>425</v>
       </c>
-      <c r="I50" t="s" s="5">
+      <c r="I50" t="s" s="13">
         <v>156</v>
       </c>
     </row>
